--- a/wholesale-customers.xlsx
+++ b/wholesale-customers.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enterprisedna.sharepoint.com/sites/EnterpriseDNAContentCreators/Raw Video File/George Mount/02 Webinars/excel-tables-jun-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\tables-workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A3ADCD06-4174-4286-8909-27BD6AE39C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11783BD-E5BE-444F-8D19-DB8D3AD2D34A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02BA67-1A96-4BD6-A470-028DEB5DE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId3"/>
+    <sheet name="data" sheetId="6" r:id="rId1"/>
+    <sheet name="headers" sheetId="12" r:id="rId2"/>
+    <sheet name="source" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Channel</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Frozen</t>
+  </si>
+  <si>
+    <t>Data source:</t>
+  </si>
+  <si>
+    <t>This is a partial take from the Wholesale Customers dataset</t>
+  </si>
+  <si>
+    <t>UC Irvine machine learning repository: https://archive-beta.ics.uci.edu/ml/datasets/wholesale+customers</t>
   </si>
 </sst>
 </file>
@@ -549,13 +558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>2</v>
       </c>
@@ -572,7 +579,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -589,7 +596,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -606,7 +613,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -623,7 +630,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -640,7 +647,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -657,7 +664,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -674,7 +681,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -691,7 +698,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -708,7 +715,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -725,7 +732,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -742,7 +749,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -759,7 +766,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -776,7 +783,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -793,7 +800,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -810,7 +817,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -827,7 +834,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -844,7 +851,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -861,7 +868,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -878,7 +885,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>1</v>
       </c>
@@ -895,7 +902,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -912,7 +919,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1</v>
       </c>
@@ -929,7 +936,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1</v>
       </c>
@@ -946,7 +953,7 @@
         <v>9408</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -963,7 +970,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>2</v>
       </c>
@@ -980,7 +987,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1133,7 +1140,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1252,7 +1259,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1643,7 +1650,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1677,7 +1684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1762,7 +1769,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>8872</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1864,7 +1871,7 @@
         <v>7530</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1881,7 +1888,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>1</v>
       </c>
@@ -1915,7 +1922,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1966,7 +1973,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>1</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2034,7 +2041,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>9735</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2119,7 +2126,7 @@
         <v>8693</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>35009</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2238,7 +2245,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2289,7 +2296,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>18028</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>2</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2391,7 +2398,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>2</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>1</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>2</v>
       </c>
@@ -2459,7 +2466,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>8853</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2578,7 +2585,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>2</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>1</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>16538</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>2</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>1</v>
       </c>
@@ -2765,7 +2772,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>1</v>
       </c>
@@ -2782,7 +2789,7 @@
         <v>6316</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>1</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>1</v>
       </c>
@@ -2833,7 +2840,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>1</v>
       </c>
@@ -2850,7 +2857,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>1</v>
       </c>
@@ -2867,7 +2874,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>1</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>1</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>1</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>1</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>1</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3003,7 +3010,7 @@
         <v>8425</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>2</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3054,7 +3061,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>1</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3139,7 +3146,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>2</v>
       </c>
@@ -3207,7 +3214,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>2</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3241,7 +3248,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>2</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>2</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3309,7 +3316,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3326,7 +3333,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>2</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>2</v>
       </c>
@@ -3360,7 +3367,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>2</v>
       </c>
@@ -3377,7 +3384,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>2</v>
       </c>
@@ -3394,7 +3401,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3445,7 +3452,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>2</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>2</v>
       </c>
@@ -3479,7 +3486,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>2</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>1</v>
       </c>
@@ -3530,7 +3537,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>2</v>
       </c>
@@ -3547,7 +3554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>1</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>1</v>
       </c>
@@ -3615,7 +3622,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>1</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>1</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>16745</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>1</v>
       </c>
@@ -3666,7 +3673,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>1</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>1</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>1</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>2</v>
       </c>
@@ -3768,7 +3775,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>2</v>
       </c>
@@ -3785,7 +3792,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>1</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>1</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>2</v>
       </c>
@@ -3853,7 +3860,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>1</v>
       </c>
@@ -3870,7 +3877,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>1</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>7888</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>18711</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>2</v>
       </c>
@@ -3921,7 +3928,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>1</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>1</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>2</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>2</v>
       </c>
@@ -3989,7 +3996,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>1</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>1</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>1</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>2</v>
       </c>
@@ -4057,7 +4064,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>1</v>
       </c>
@@ -4074,7 +4081,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>2</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>1</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>2</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>1</v>
       </c>
@@ -4142,7 +4149,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>2</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>1</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>1</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>2</v>
       </c>
@@ -4210,7 +4217,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>1</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>2</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>1</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>2</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>1</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>1</v>
       </c>
@@ -4312,7 +4319,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>1</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>1</v>
       </c>
@@ -4346,7 +4353,7 @@
         <v>7496</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>2</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>1</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>1</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>2</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>1</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>1</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>1</v>
       </c>
@@ -4465,7 +4472,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>2</v>
       </c>
@@ -4482,7 +4489,7 @@
         <v>8321</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>1</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>1</v>
       </c>
@@ -4516,7 +4523,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>1</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>1</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>1</v>
       </c>
@@ -4567,7 +4574,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>1</v>
       </c>
@@ -4584,7 +4591,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>1</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>1</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>1</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>1</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>1</v>
       </c>
@@ -4669,7 +4676,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>1</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>1</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>1</v>
       </c>
@@ -4720,7 +4727,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>2</v>
       </c>
@@ -4737,7 +4744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>1</v>
       </c>
@@ -4754,7 +4761,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>1</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>1</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>1</v>
       </c>
@@ -4805,7 +4812,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>1</v>
       </c>
@@ -4822,7 +4829,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>2</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>1</v>
       </c>
@@ -4856,7 +4863,7 @@
         <v>7683</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>1</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>1</v>
       </c>
@@ -4890,7 +4897,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>1</v>
       </c>
@@ -4907,7 +4914,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>1</v>
       </c>
@@ -4924,7 +4931,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>1</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>1</v>
       </c>
@@ -4958,7 +4965,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>1</v>
       </c>
@@ -4975,7 +4982,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>1</v>
       </c>
@@ -4992,7 +4999,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>1</v>
       </c>
@@ -5009,7 +5016,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>1</v>
       </c>
@@ -5026,7 +5033,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>1</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>2</v>
       </c>
@@ -5060,7 +5067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>1</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>10155</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>2</v>
       </c>
@@ -5094,7 +5101,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>1</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>2</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>1</v>
       </c>
@@ -5145,7 +5152,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>1</v>
       </c>
@@ -5162,7 +5169,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>1</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>1</v>
       </c>
@@ -5196,7 +5203,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>1</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>1</v>
       </c>
@@ -5230,7 +5237,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>1</v>
       </c>
@@ -5247,7 +5254,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>1</v>
       </c>
@@ -5264,7 +5271,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>1</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>16919</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>1</v>
       </c>
@@ -5298,7 +5305,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>2</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>1</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>2</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>1</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>1</v>
       </c>
@@ -5383,7 +5390,7 @@
         <v>10303</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>1</v>
       </c>
@@ -5400,7 +5407,7 @@
         <v>8692</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>1</v>
       </c>
@@ -5417,7 +5424,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>1</v>
       </c>
@@ -5434,7 +5441,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>1</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>8366</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>1</v>
       </c>
@@ -5468,7 +5475,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>1</v>
       </c>
@@ -5485,7 +5492,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>1</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>1</v>
       </c>
@@ -5519,7 +5526,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>1</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>2</v>
       </c>
@@ -5553,7 +5560,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>1</v>
       </c>
@@ -5570,7 +5577,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>2</v>
       </c>
@@ -5587,7 +5594,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>1</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>2</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>2</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>1</v>
       </c>
@@ -5655,7 +5662,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>2</v>
       </c>
@@ -5672,7 +5679,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>2</v>
       </c>
@@ -5689,7 +5696,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>2</v>
       </c>
@@ -5706,7 +5713,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>2</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>2</v>
       </c>
@@ -5740,7 +5747,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>2</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>2</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>1</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>1</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>2</v>
       </c>
@@ -5825,7 +5832,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>1</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>12569</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>1</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>2</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>1</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>1</v>
       </c>
@@ -5910,7 +5917,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>2</v>
       </c>
@@ -5927,7 +5934,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>1</v>
       </c>
@@ -5944,7 +5951,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>1</v>
       </c>
@@ -5961,7 +5968,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>1</v>
       </c>
@@ -5978,7 +5985,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>2</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>1</v>
       </c>
@@ -6012,7 +6019,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>1</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>1</v>
       </c>
@@ -6046,7 +6053,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>1</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>1</v>
       </c>
@@ -6080,7 +6087,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>1</v>
       </c>
@@ -6097,7 +6104,7 @@
         <v>60869</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>1</v>
       </c>
@@ -6114,7 +6121,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>1</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>1</v>
       </c>
@@ -6148,7 +6155,7 @@
         <v>7849</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>1</v>
       </c>
@@ -6165,7 +6172,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>1</v>
       </c>
@@ -6182,7 +6189,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>2</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>1</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>2</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>2</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>11559</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>2</v>
       </c>
@@ -6267,7 +6274,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>1</v>
       </c>
@@ -6284,7 +6291,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>1</v>
       </c>
@@ -6301,7 +6308,7 @@
         <v>8170</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>1</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>1</v>
       </c>
@@ -6335,7 +6342,7 @@
         <v>9584</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>2</v>
       </c>
@@ -6352,7 +6359,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>2</v>
       </c>
@@ -6369,7 +6376,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>1</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>2</v>
       </c>
@@ -6403,7 +6410,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>1</v>
       </c>
@@ -6420,7 +6427,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>1</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>2</v>
       </c>
@@ -6454,7 +6461,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>2</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>1</v>
       </c>
@@ -6488,7 +6495,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>2</v>
       </c>
@@ -6505,7 +6512,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>1</v>
       </c>
@@ -6522,7 +6529,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>2</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>1</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>2</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>1</v>
       </c>
@@ -6590,7 +6597,7 @@
         <v>6386</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>1</v>
       </c>
@@ -6607,7 +6614,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>1</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>2</v>
       </c>
@@ -6641,7 +6648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>1</v>
       </c>
@@ -6658,7 +6665,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>1</v>
       </c>
@@ -6675,7 +6682,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>1</v>
       </c>
@@ -6692,7 +6699,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>1</v>
       </c>
@@ -6709,7 +6716,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>1</v>
       </c>
@@ -6726,7 +6733,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>1</v>
       </c>
@@ -6743,7 +6750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>1</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>2</v>
       </c>
@@ -6777,7 +6784,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>1</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>1</v>
       </c>
@@ -6811,7 +6818,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>1</v>
       </c>
@@ -6828,7 +6835,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>1</v>
       </c>
@@ -6845,7 +6852,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>2</v>
       </c>
@@ -6862,7 +6869,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>1</v>
       </c>
@@ -6879,7 +6886,7 @@
         <v>8164</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>1</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>2</v>
       </c>
@@ -6913,7 +6920,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>1</v>
       </c>
@@ -6930,7 +6937,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>1</v>
       </c>
@@ -6947,7 +6954,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>2</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>1</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>1</v>
       </c>
@@ -6998,7 +7005,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>2</v>
       </c>
@@ -7015,7 +7022,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>1</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>1</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>9927</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>1</v>
       </c>
@@ -7066,7 +7073,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>1</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>1</v>
       </c>
@@ -7100,7 +7107,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>1</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>1</v>
       </c>
@@ -7134,7 +7141,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>1</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>1</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>1</v>
       </c>
@@ -7185,7 +7192,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>1</v>
       </c>
@@ -7202,7 +7209,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>1</v>
       </c>
@@ -7219,7 +7226,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>1</v>
       </c>
@@ -7236,7 +7243,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>1</v>
       </c>
@@ -7253,7 +7260,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>1</v>
       </c>
@@ -7270,7 +7277,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>1</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>2</v>
       </c>
@@ -7304,7 +7311,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>1</v>
       </c>
@@ -7321,7 +7328,7 @@
         <v>6838</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>1</v>
       </c>
@@ -7338,7 +7345,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>1</v>
       </c>
@@ -7355,7 +7362,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>1</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>1</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>13223</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>1</v>
       </c>
@@ -7406,7 +7413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>1</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>1</v>
       </c>
@@ -7440,7 +7447,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>1</v>
       </c>
@@ -7457,7 +7464,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>1</v>
       </c>
@@ -7474,7 +7481,7 @@
         <v>9806</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>2</v>
       </c>
@@ -7491,7 +7498,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>2</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>1</v>
       </c>
@@ -7525,7 +7532,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>1</v>
       </c>
@@ -7542,7 +7549,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>1</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>1</v>
       </c>
@@ -7576,7 +7583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>1</v>
       </c>
@@ -7593,7 +7600,7 @@
         <v>17866</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>1</v>
       </c>
@@ -7610,7 +7617,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>2</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>2</v>
       </c>
@@ -7644,7 +7651,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>1</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>2</v>
       </c>
@@ -7678,7 +7685,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>1</v>
       </c>
@@ -7695,7 +7702,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>1</v>
       </c>
@@ -7712,7 +7719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>2</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>1</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>2</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>2</v>
       </c>
@@ -7780,7 +7787,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>1</v>
       </c>
@@ -7797,7 +7804,7 @@
         <v>15348</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>1</v>
       </c>
@@ -7814,7 +7821,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>1</v>
       </c>
@@ -7831,7 +7838,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>1</v>
       </c>
@@ -7848,7 +7855,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>1</v>
       </c>
@@ -7865,7 +7872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>1</v>
       </c>
@@ -7882,7 +7889,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>1</v>
       </c>
@@ -7899,7 +7906,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>1</v>
       </c>
@@ -7916,7 +7923,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>1</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>1</v>
       </c>
@@ -7950,7 +7957,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>1</v>
       </c>
@@ -7967,7 +7974,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>1</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>2</v>
       </c>
@@ -8001,7 +8008,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>1</v>
       </c>
@@ -8018,7 +8025,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>1</v>
       </c>
@@ -8045,12 +8052,12 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8073,18 +8080,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364F1DF-DF65-4364-AFFB-0DFACDEF07C5}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b6562d886850e7a26df130f65c39b40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf0a0ff621391093d509f8465489fbe5" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -8301,29 +8339,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F6104D7-7986-491A-9F71-EC15044BD774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA696E1-F966-434E-B544-1606035EFBCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DE25E3F-5A5A-467E-94B1-06E9AC67C1C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DE25E3F-5A5A-467E-94B1-06E9AC67C1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA696E1-F966-434E-B544-1606035EFBCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F6104D7-7986-491A-9F71-EC15044BD774}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>